--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T13:19:54+00:00</t>
+    <t>2023-06-22T13:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T13:21:03+00:00</t>
+    <t>2023-06-26T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>5-9 year</t>
+  </si>
+  <si>
+    <t>P10Y--P15Y</t>
+  </si>
+  <si>
+    <t>10-15 year</t>
   </si>
   <si>
     <t>P15Y--P20Y</t>
@@ -461,7 +467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -596,15 +602,23 @@
         <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:18:21+00:00</t>
+    <t>2023-06-26T18:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T18:12:26+00:00</t>
+    <t>2023-06-26T18:53:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T18:53:39+00:00</t>
+    <t>2023-06-27T23:00:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T23:00:32+00:00</t>
+    <t>2023-06-28T16:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T16:41:17+00:00</t>
+    <t>2023-06-28T22:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T22:56:24+00:00</t>
+    <t>2023-06-29T21:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-29T21:23:44+00:00</t>
+    <t>2023-06-29T21:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-29T21:40:07+00:00</t>
+    <t>2023-07-01T08:06:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-01T08:06:17+00:00</t>
+    <t>2023-07-01T19:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-01T19:51:15+00:00</t>
+    <t>2023-07-02T09:23:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T09:44:24+00:00</t>
+    <t>2023-07-02T10:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T10:08:51+00:00</t>
+    <t>2023-07-02T12:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T12:34:58+00:00</t>
+    <t>2023-07-02T12:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T13:27:30+00:00</t>
+    <t>2023-07-02T13:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T13:33:56+00:00</t>
+    <t>2023-07-02T13:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T13:41:15+00:00</t>
+    <t>2023-07-02T13:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T13:47:46+00:00</t>
+    <t>2023-07-02T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:16:08+00:00</t>
+    <t>2023-07-02T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:18:34+00:00</t>
+    <t>2023-07-02T14:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:20:15+00:00</t>
+    <t>2023-07-02T14:28:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:28:28+00:00</t>
+    <t>2023-07-02T14:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:35:15+00:00</t>
+    <t>2023-07-02T14:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:44:20+00:00</t>
+    <t>2023-07-02T14:55:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T14:55:15+00:00</t>
+    <t>2023-07-02T15:07:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T15:07:50+00:00</t>
+    <t>2023-07-02T15:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T15:17:15+00:00</t>
+    <t>2023-07-02T15:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T15:45:52+00:00</t>
+    <t>2023-07-02T16:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/ValueSet-AgeRangesTXCURR.xlsx
+++ b/branches/main/ValueSet-AgeRangesTXCURR.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T16:08:33+00:00</t>
+    <t>2023-07-02T16:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
